--- a/output_good.xlsx
+++ b/output_good.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,71 +555,6 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>123</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>西式煙燻火腿(小圓),西式煙燻火腿(小圓),西式煙燻火腿(大圓)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>11</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>123</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>西式煙燻火腿(小圓),西式煙燻火腿(小圓),西式煙燻火腿(大圓)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output_good.xlsx
+++ b/output_good.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,18 +466,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>西式煙燻火腿(小圓)</t>
+          <t>西式煙燻火腿(大圓)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>小</t>
+          <t>條</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>295</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>620</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>西式煙燻火腿(大圓)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -485,18 +489,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>西式煙燻火腿(大圓)</t>
+          <t>西式煙燻火腿(小圓)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大</t>
+          <t>條</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>590</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>310</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>西式煙燻火腿(小圓)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -504,18 +512,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>蔗燻臘肉</t>
+          <t>招牌煙燻火腿（大）禮盒</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>一斤</t>
+          <t>盒</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>360</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>620</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>招牌煙燻火腿（大）禮盒</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -523,18 +535,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>高粱酒香腸</t>
+          <t>招牌煙燻火腿（小）禮盒</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>一斤</t>
+          <t>盒</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>300</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>620</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>招牌煙燻火腿（小）禮盒</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -542,18 +558,455 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>豬肉酥</t>
+          <t>西式煙燻火腿(大圓二條)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>一台斤</t>
+          <t>盒</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>400</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>1240</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>西式煙燻火腿(大圓二條)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>豬肉酥（300g）</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>220</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>豬肉酥（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>海苔豬肉酥（300g）</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>220</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>海苔豬肉酥（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>豬肉脯（300g）</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>220</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>豬肉脯（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>豬肉絲（300g）</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>280</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>豬肉絲（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>牛肉乾（300g）</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>330</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>牛肉乾（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>蜜汁豬肉乾（300g）</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>290</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>蜜汁豬肉乾（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>杏仁香脆肉紙（80g）</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>170</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>杏仁香脆肉紙（80g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>香脆肉絲酥（150g）</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>260</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>香脆肉絲酥（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>高梁香腸（320g）</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>170</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>高梁香腸（320g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蔗燻臘肉（300g）</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>條</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>蔗燻臘肉（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>低溫運費</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>件</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>170</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>低溫運費</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>常溫運費</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>件</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>130</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>常溫運費</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>貨到付款手續費</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>30</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>貨到付款手續費</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>豬肉酥（150g）</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>110</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>豬肉酥（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>海苔豬肉酥（150g）</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>110</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>海苔豬肉酥（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>豬肉脯（150g）</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>110</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>豬肉脯（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>豬肉絲（150g）</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>140</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>豬肉絲（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>牛肉乾（150g）</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>165</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>牛肉乾（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>蜜汁豬肉乾（150g）</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>145</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>蜜汁豬肉乾（150g）</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output_good.xlsx
+++ b/output_good.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,6 +1008,52 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>123</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>西式煙燻火腿(大圓),招牌煙燻火腿（大）禮盒</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>30</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>teset</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>12341515</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>豬肉脯（300g）,蜜汁豬肉乾（300g）</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output_good.xlsx
+++ b/output_good.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,47 +462,47 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>西式煙燻火腿(大圓)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>條</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>120</v>
+        <v>620</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>西式煙燻火腿(大圓)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>西式煙燻火腿(小圓)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>條</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1234</v>
+        <v>310</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>西式煙燻火腿(小圓)</t>
         </is>
       </c>
     </row>
@@ -512,20 +512,591 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>招牌煙燻火腿（大）禮盒</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>620</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>招牌煙燻火腿（大）禮盒</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>招牌煙燻火腿（小）禮盒</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>620</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>招牌煙燻火腿（小）禮盒</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>西式煙燻火腿(大圓二條)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1240</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>西式煙燻火腿(大圓二條)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>豬肉酥（300g）</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>220</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>豬肉酥（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>海苔豬肉酥（300g）</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>220</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>海苔豬肉酥（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>豬肉脯（300g）</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>220</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>豬肉脯（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>豬肉絲（300g）</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>280</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>豬肉絲（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>牛肉乾（300g）</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>330</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>牛肉乾（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>蜜汁豬肉乾（300g）</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>290</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>蜜汁豬肉乾（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>杏仁香脆肉紙（80g）</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>170</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>杏仁香脆肉紙（80g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>香脆肉絲酥（150g）</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>260</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>香脆肉絲酥（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>高梁香腸（320g）</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>170</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>高梁香腸（320g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蔗燻臘肉（300g）</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>條</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>蔗燻臘肉（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>低溫運費</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>件</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>170</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>低溫運費</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>常溫運費</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>件</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>130</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>常溫運費</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>貨到付款手續費</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>30</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>貨到付款手續費</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>豬肉酥（150g）</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>110</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>豬肉酥（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>海苔豬肉酥（150g）</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>110</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>海苔豬肉酥（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>豬肉脯（150g）</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>110</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>豬肉脯（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>豬肉絲（150g）</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>140</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>豬肉絲（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>牛肉乾（150g）</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>165</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>牛肉乾（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>蜜汁豬肉乾（150g）</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>145</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>蜜汁豬肉乾（150g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>30</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>teset</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>12341515</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>豬肉脯（300g）,蜜汁豬肉乾（300g）</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>test12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>123</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>西式煙燻火腿(大圓),招牌煙燻火腿（大）禮盒</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>123</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>123</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>b,a</t>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>e</t>
         </is>
       </c>
     </row>
